--- a/medicine/Enfance/Bibiche_(personnage)/Bibiche_(personnage).xlsx
+++ b/medicine/Enfance/Bibiche_(personnage)/Bibiche_(personnage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bibiche est l'héroïne d'une série française de quinze albums pour jeunes enfants, écrits par Marie-Reine Blanchard (1915-2003) et publiés entre 1943 et 1953. Ils sont réédités en fac-similés de 1996 à 2000.
@@ -512,9 +524,11 @@
           <t>Présentation de la série</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les menues aventures de la petite Bibiche et de son cousin François paraissent pendant la deuxième guerre mondiale et connaissent un succès immédiat, à tel point que des produits dérivés (albums à colorier, cartes postales, papier-peint, tissu, papier à lettres, porcelaine, etc.) sont commercialisés[1]. Des galas et des matinées enfantines sont organisés dans toute la France, ainsi que le concours « Mademoiselle Bibiche » de l'année pour élire le meilleur sosie de Bibiche[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les menues aventures de la petite Bibiche et de son cousin François paraissent pendant la deuxième guerre mondiale et connaissent un succès immédiat, à tel point que des produits dérivés (albums à colorier, cartes postales, papier-peint, tissu, papier à lettres, porcelaine, etc.) sont commercialisés. Des galas et des matinées enfantines sont organisés dans toute la France, ainsi que le concours « Mademoiselle Bibiche » de l'année pour élire le meilleur sosie de Bibiche,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Albums parus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Publiés d'abord dans un format à l'italienne (un rectangle), les albums sont illustrés par des aquarelles peintes par l'autrice elle-même, à l'exception de deux tomes qui seront illustrés par Pierre Probst[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Publiés d'abord dans un format à l'italienne (un rectangle), les albums sont illustrés par des aquarelles peintes par l'autrice elle-même, à l'exception de deux tomes qui seront illustrés par Pierre Probst.
 Bibiche petite fille, 1943, éditions J. Barbe, Lyon
 Bibiche et François en vacances, 1943, éditions J. Barbe, Lyon
 Bibiche chez tante Gertrude, 1943, éditions J. Barbe, Lyon
